--- a/gia-api/apps/rcoi/tests/xlsx/2020-06-13__11__.xlsx
+++ b/gia-api/apps/rcoi/tests/xlsx/2020-06-13__11__.xlsx
@@ -1,22 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\spirk\projects\gia-api\gia-api\apps\rcoi\tests\xlsx\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/devmem/projects/gia-api/gia-api/apps/rcoi/tests/xlsx/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19219E01-F1F0-49E2-993D-3C4ED48A087C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BAB90DB-C024-954F-B25E-D45CBC965B05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16320" yWindow="1185" windowWidth="19545" windowHeight="13830" xr2:uid="{1E7247FC-BD88-4564-8596-3E6CD8A6A476}"/>
+    <workbookView xWindow="16320" yWindow="1180" windowWidth="19540" windowHeight="13840" activeTab="1" xr2:uid="{1E7247FC-BD88-4564-8596-3E6CD8A6A476}"/>
   </bookViews>
   <sheets>
-    <sheet name="Лист1" sheetId="1" r:id="rId1"/>
+    <sheet name="empty" sheetId="2" r:id="rId1"/>
+    <sheet name="bad" sheetId="3" r:id="rId2"/>
+    <sheet name="Лист1" sheetId="1" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Лист1!$A$2:$G$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Лист1!$A$2:$G$2</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="44">
   <si>
     <t>Список работников образовательных организаций, задействованных в работе пунктов проведения экзаменов при проведении 
 единого государсвтенного экзамена</t>
@@ -164,6 +166,9 @@
   </si>
   <si>
     <t>Государственное бюджетное профессиональное образовательное учреждение города Москвы "Колледж"</t>
+  </si>
+  <si>
+    <t>some random notes from workbook author</t>
   </si>
 </sst>
 </file>
@@ -260,13 +265,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -282,9 +287,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Стандартная">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -322,7 +327,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Стандартная">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -428,7 +433,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Стандартная">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -577,34 +582,67 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E38FC478-5FF0-B740-88A0-55D98AA3D9E8}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25CAADFA-123E-744B-AF4E-EA52F58463AF}">
+  <dimension ref="B2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="2" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE8D8990-3594-4778-8F70-632AF32F55E9}">
   <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="33.28515625" defaultRowHeight="28.5" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="33.33203125" defaultRowHeight="28.5" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="7" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="42.28515625" customWidth="1"/>
-    <col min="6" max="6" width="18.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="36.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="42.33203125" customWidth="1"/>
+    <col min="6" max="6" width="18.83203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="36.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:7" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-    </row>
-    <row r="2" spans="1:7" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+    </row>
+    <row r="2" spans="1:7" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -627,7 +665,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>1</v>
       </c>
@@ -650,7 +688,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>2</v>
       </c>
@@ -673,7 +711,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>3</v>
       </c>
@@ -696,7 +734,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>4</v>
       </c>
@@ -719,7 +757,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>5</v>
       </c>
@@ -742,7 +780,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>6</v>
       </c>
@@ -765,7 +803,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <v>7</v>
       </c>
@@ -786,7 +824,7 @@
       </c>
       <c r="G9" s="4"/>
     </row>
-    <row r="10" spans="1:7" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <v>8</v>
       </c>
@@ -809,7 +847,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
         <v>9</v>
       </c>
@@ -832,7 +870,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
         <v>10</v>
       </c>
@@ -855,8 +893,8 @@
         <v>26</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D13" s="6"/>
+    <row r="13" spans="1:7" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D13" s="5"/>
     </row>
   </sheetData>
   <autoFilter ref="A2:G2" xr:uid="{5F4387DD-B456-45C5-ADC3-92BB64DAA418}"/>

--- a/gia-api/apps/rcoi/tests/xlsx/2020-06-13__11__.xlsx
+++ b/gia-api/apps/rcoi/tests/xlsx/2020-06-13__11__.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10916"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/devmem/projects/gia-api/gia-api/apps/rcoi/tests/xlsx/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BAB90DB-C024-954F-B25E-D45CBC965B05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC7F1864-3F7E-8040-B521-38DE0B24B4D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16320" yWindow="1180" windowWidth="19540" windowHeight="13840" activeTab="1" xr2:uid="{1E7247FC-BD88-4564-8596-3E6CD8A6A476}"/>
+    <workbookView xWindow="15020" yWindow="1180" windowWidth="19540" windowHeight="13840" activeTab="1" xr2:uid="{1E7247FC-BD88-4564-8596-3E6CD8A6A476}"/>
   </bookViews>
   <sheets>
     <sheet name="empty" sheetId="2" r:id="rId1"/>
     <sheet name="bad" sheetId="3" r:id="rId2"/>
     <sheet name="Лист1" sheetId="1" r:id="rId3"/>
+    <sheet name="bad again" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Лист1!$A$2:$G$2</definedName>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="45">
   <si>
     <t>Список работников образовательных организаций, задействованных в работе пунктов проведения экзаменов при проведении 
 единого государсвтенного экзамена</t>
@@ -169,6 +170,9 @@
   </si>
   <si>
     <t>some random notes from workbook author</t>
+  </si>
+  <si>
+    <t>more random notes from workbook author</t>
   </si>
 </sst>
 </file>
@@ -597,9 +601,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25CAADFA-123E-744B-AF4E-EA52F58463AF}">
   <dimension ref="B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
@@ -907,4 +909,24 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E66FE481-9843-8143-B61E-604811C78C4A}">
+  <dimension ref="A3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>